--- a/datasets/seven_four_ab.xlsx
+++ b/datasets/seven_four_ab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB08A4-B464-406A-B594-2F92FA5C7709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96250A2C-5056-4042-AB3C-EE74ED9CBF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="9690" windowWidth="28710" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="2700" windowWidth="28710" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,21 +42,19 @@
     <t>Sweden-≥ 1 prosecutions</t>
   </si>
   <si>
-    <t>Sweden,
-foreign born parents-≥ 1 prosecutions</t>
-  </si>
-  <si>
     <t>Foreign born-≥ 1 prosecutions</t>
   </si>
   <si>
     <t>Sweden-≥ 4 prosecutions</t>
   </si>
   <si>
-    <t>Sweden,
-foreign born parents-≥ 4 prosecutions</t>
+    <t>Foreign born-≥ 4 prosecutions</t>
   </si>
   <si>
-    <t>Foreign born-≥ 4 prosecutions</t>
+    <t>Sweden, foreign born parents-≥ 1 prosecutions</t>
+  </si>
+  <si>
+    <t>Sweden, foreign born parents-≥ 4 prosecutions</t>
   </si>
 </sst>
 </file>
@@ -453,21 +451,21 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L9" sqref="L9:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/datasets/seven_four_ab.xlsx
+++ b/datasets/seven_four_ab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96250A2C-5056-4042-AB3C-EE74ED9CBF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A7B948-FE29-46CB-ACD3-7C24FFDED9A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="2700" windowWidth="28710" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,11 +144,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -156,17 +168,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +466,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,22 +484,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -492,644 +507,644 @@
       <c r="A2" s="2">
         <v>1990</v>
       </c>
-      <c r="B2" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C2" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>24.9</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G2" s="4">
-        <v>5.7</v>
+      <c r="B2" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C2" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>49.6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>13.7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1991</v>
       </c>
-      <c r="B3" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C3" s="4">
-        <v>13.7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>24.9</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G3" s="4">
-        <v>6.3</v>
+      <c r="B3" s="7">
+        <v>36.9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>14.3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1992</v>
       </c>
-      <c r="B4" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>26.6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="G4" s="4">
-        <v>6.6</v>
+      <c r="B4" s="7">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44.6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>15.4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1993</v>
       </c>
-      <c r="B5" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G5" s="4">
-        <v>7.5</v>
+      <c r="B5" s="7">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C5" s="7">
+        <v>50.3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1994</v>
       </c>
-      <c r="B6" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>30.7</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <v>7.9</v>
+      <c r="B6" s="7">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45.7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45.5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>13.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1995</v>
       </c>
-      <c r="B7" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D7" s="4">
-        <v>34.1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
-        <v>8.3000000000000007</v>
+      <c r="B7" s="7">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45.4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1996</v>
       </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>33.4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>8.1999999999999993</v>
+      <c r="B8" s="7">
+        <v>32.6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>47.5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43.6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>13.6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>11.1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1997</v>
       </c>
-      <c r="B9" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>34.4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>7.4</v>
+      <c r="B9" s="7">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10.3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1998</v>
       </c>
-      <c r="B10" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="C10" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>35.1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="G10" s="4">
-        <v>7.3</v>
+      <c r="B10" s="7">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43.5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>44.9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>11.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1999</v>
       </c>
-      <c r="B11" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>23.2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="E11" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="G11" s="4">
-        <v>6.6</v>
+      <c r="B11" s="7">
+        <v>32.5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>41.6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="G11" s="7">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2000</v>
       </c>
-      <c r="B12" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="C12" s="4">
-        <v>25.7</v>
-      </c>
-      <c r="D12" s="4">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="E12" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="G12" s="4">
-        <v>6.4</v>
+      <c r="B12" s="7">
+        <v>35.4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>41.6</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10.1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2001</v>
       </c>
-      <c r="B13" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="E13" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="G13" s="4">
-        <v>5.4</v>
+      <c r="B13" s="7">
+        <v>34.9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>36.9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>9.1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2002</v>
       </c>
-      <c r="B14" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="C14" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>43.8</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
+      <c r="B14" s="7">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C14" s="7">
+        <v>39.6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="E14" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>11.1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>11.1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2003</v>
       </c>
-      <c r="B15" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C15" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="D15" s="4">
-        <v>47.4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4.4000000000000004</v>
+      <c r="B15" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C15" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>40.1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F15" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>9.4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2004</v>
       </c>
-      <c r="B16" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C16" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>46.6</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="7">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>41.3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="G16" s="7">
         <v>9.6</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4.3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2005</v>
       </c>
-      <c r="B17" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4">
-        <v>44.2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>4.3</v>
+      <c r="B17" s="7">
+        <v>32.9</v>
+      </c>
+      <c r="C17" s="7">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38.6</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8.6</v>
+      </c>
+      <c r="F17" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>8.1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2006</v>
       </c>
-      <c r="B18" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="C18" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="D18" s="4">
-        <v>42.3</v>
-      </c>
-      <c r="E18" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3.9</v>
+      <c r="B18" s="7">
+        <v>31.4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D18" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F18" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>9.1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2007</v>
       </c>
-      <c r="B19" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C19" s="4">
-        <v>22.4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="E19" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3.9</v>
+      <c r="B19" s="7">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C19" s="7">
+        <v>36.1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>37.9</v>
+      </c>
+      <c r="E19" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F19" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10.4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2008</v>
       </c>
-      <c r="B20" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="C20" s="4">
-        <v>23.4</v>
-      </c>
-      <c r="D20" s="4">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="7">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C20" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>39.9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="G20" s="7">
         <v>9.8000000000000007</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G20" s="4">
-        <v>3.7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2009</v>
       </c>
-      <c r="B21" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C21" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="D21" s="4">
-        <v>34.9</v>
-      </c>
-      <c r="E21" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="G21" s="4">
-        <v>4.3</v>
+      <c r="B21" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E21" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="F21" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="G21" s="7">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2010</v>
       </c>
-      <c r="B22" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="C22" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="D22" s="4">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="E22" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="G22" s="4">
-        <v>4</v>
+      <c r="B22" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D22" s="7">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F22" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2011</v>
       </c>
-      <c r="B23" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C23" s="4">
-        <v>23.4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>34.6</v>
-      </c>
-      <c r="E23" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="G23" s="4">
-        <v>4</v>
+      <c r="B23" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="C23" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="G23" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2012</v>
       </c>
-      <c r="B24" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C24" s="4">
-        <v>23.7</v>
-      </c>
-      <c r="D24" s="4">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E24" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="G24" s="4">
-        <v>3.5</v>
+      <c r="B24" s="7">
+        <v>31.8</v>
+      </c>
+      <c r="C24" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D24" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="F24" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G24" s="7">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2013</v>
       </c>
-      <c r="B25" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C25" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="D25" s="4">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="E25" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="G25" s="4">
-        <v>3.6</v>
+      <c r="B25" s="7">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D25" s="7">
+        <v>36.1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>9.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2014</v>
       </c>
-      <c r="B26" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="C26" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>37.9</v>
-      </c>
-      <c r="E26" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>3.8</v>
+      <c r="B26" s="7">
+        <v>31.2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>35.6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E26" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="G26" s="7">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2015</v>
       </c>
-      <c r="B27" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C27" s="4">
-        <v>24.4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>37</v>
-      </c>
-      <c r="E27" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G27" s="4">
-        <v>3.9</v>
+      <c r="B27" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="C27" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>32.9</v>
+      </c>
+      <c r="E27" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="F27" s="7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G27" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2016</v>
       </c>
-      <c r="B28" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="C28" s="4">
-        <v>23.4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>39.6</v>
-      </c>
-      <c r="E28" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G28" s="4">
-        <v>3.9</v>
+      <c r="B28" s="7">
+        <v>27.9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>33.5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="G28" s="7">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2017</v>
       </c>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>21.6</v>
-      </c>
-      <c r="D29" s="5">
-        <v>44.6</v>
-      </c>
-      <c r="E29" s="5">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="G29" s="5">
-        <v>3.8</v>
+      <c r="B29" s="8">
+        <v>29.4</v>
+      </c>
+      <c r="C29" s="8">
+        <v>36</v>
+      </c>
+      <c r="D29" s="8">
+        <v>31.9</v>
+      </c>
+      <c r="E29" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="G29" s="8">
+        <v>7.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
